--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col18a1</t>
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H2">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>53.91542872671388</v>
+        <v>105.5417420982071</v>
       </c>
       <c r="R2">
-        <v>485.238858540425</v>
+        <v>949.875678883864</v>
       </c>
       <c r="S2">
-        <v>0.0131958877055154</v>
+        <v>0.04691900159430402</v>
       </c>
       <c r="T2">
-        <v>0.01319588770551541</v>
+        <v>0.04691900159430403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H3">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
-        <v>579.800933384793</v>
+        <v>508.398865926852</v>
       </c>
       <c r="R3">
-        <v>5218.208400463137</v>
+        <v>4575.589793341667</v>
       </c>
       <c r="S3">
-        <v>0.1419072089230713</v>
+        <v>0.2260107397011551</v>
       </c>
       <c r="T3">
-        <v>0.1419072089230713</v>
+        <v>0.2260107397011551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H4">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>246.3073527880327</v>
+        <v>221.2229610077617</v>
       </c>
       <c r="R4">
-        <v>2216.766175092294</v>
+        <v>1991.006649069856</v>
       </c>
       <c r="S4">
-        <v>0.06028411987426565</v>
+        <v>0.09834554796870418</v>
       </c>
       <c r="T4">
-        <v>0.06028411987426566</v>
+        <v>0.09834554796870416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H5">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>591.949924053092</v>
+        <v>159.9639122984449</v>
       </c>
       <c r="R5">
-        <v>5327.549316477828</v>
+        <v>1439.675210686004</v>
       </c>
       <c r="S5">
-        <v>0.1448806938861018</v>
+        <v>0.07111259400264669</v>
       </c>
       <c r="T5">
-        <v>0.1448806938861018</v>
+        <v>0.07111259400264668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H6">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>46.379759383739</v>
+        <v>48.26517817539332</v>
       </c>
       <c r="R6">
-        <v>417.417834453651</v>
+        <v>434.38660357854</v>
       </c>
       <c r="S6">
-        <v>0.01135152054041631</v>
+        <v>0.02145647709371207</v>
       </c>
       <c r="T6">
-        <v>0.01135152054041631</v>
+        <v>0.02145647709371207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H7">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>335.6765632946734</v>
+        <v>120.9224646752124</v>
       </c>
       <c r="R7">
-        <v>3021.089069652061</v>
+        <v>1088.302182076912</v>
       </c>
       <c r="S7">
-        <v>0.08215737756741791</v>
+        <v>0.05375656304407207</v>
       </c>
       <c r="T7">
-        <v>0.08215737756741794</v>
+        <v>0.05375656304407205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N8">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O8">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P8">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q8">
-        <v>15.39937961390278</v>
+        <v>34.37864516882111</v>
       </c>
       <c r="R8">
-        <v>138.594416525125</v>
+        <v>309.40780651939</v>
       </c>
       <c r="S8">
-        <v>0.003769022873761902</v>
+        <v>0.01528316356560625</v>
       </c>
       <c r="T8">
-        <v>0.003769022873761903</v>
+        <v>0.01528316356560625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q9">
         <v>165.603332562645</v>
@@ -1013,10 +1013,10 @@
         <v>1490.429993063805</v>
       </c>
       <c r="S9">
-        <v>0.04053168140853579</v>
+        <v>0.07361962073071365</v>
       </c>
       <c r="T9">
-        <v>0.0405316814085358</v>
+        <v>0.07361962073071364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N10">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O10">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P10">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q10">
-        <v>70.35055673032333</v>
+        <v>72.06007337461777</v>
       </c>
       <c r="R10">
-        <v>633.1550105729101</v>
+        <v>648.5406603715599</v>
       </c>
       <c r="S10">
-        <v>0.01721841165984955</v>
+        <v>0.03203459247814322</v>
       </c>
       <c r="T10">
-        <v>0.01721841165984955</v>
+        <v>0.03203459247814321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N11">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q11">
-        <v>169.07333963938</v>
+        <v>52.10585377307389</v>
       </c>
       <c r="R11">
-        <v>1521.66005675442</v>
+        <v>468.952683957665</v>
       </c>
       <c r="S11">
-        <v>0.04138097120930948</v>
+        <v>0.02316386471976719</v>
       </c>
       <c r="T11">
-        <v>0.04138097120930948</v>
+        <v>0.02316386471976718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N12">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O12">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P12">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q12">
-        <v>13.247034068335</v>
+        <v>15.72166046830833</v>
       </c>
       <c r="R12">
-        <v>119.223306615015</v>
+        <v>141.494944214775</v>
       </c>
       <c r="S12">
-        <v>0.003242232847353264</v>
+        <v>0.006989126746565197</v>
       </c>
       <c r="T12">
-        <v>0.003242232847353264</v>
+        <v>0.006989126746565197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N13">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q13">
-        <v>95.87628157176667</v>
+        <v>39.38868568362444</v>
       </c>
       <c r="R13">
-        <v>862.8865341459001</v>
+        <v>354.4981711526199</v>
       </c>
       <c r="S13">
-        <v>0.02346587377903097</v>
+        <v>0.01751039702062024</v>
       </c>
       <c r="T13">
-        <v>0.02346587377903098</v>
+        <v>0.01751039702062024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H14">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I14">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J14">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N14">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O14">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P14">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q14">
-        <v>0.1227402576888889</v>
+        <v>0.06462181515355556</v>
       </c>
       <c r="R14">
-        <v>1.1046623192</v>
+        <v>0.581596336382</v>
       </c>
       <c r="S14">
-        <v>3.004087504558954E-05</v>
+        <v>2.872788517547125E-05</v>
       </c>
       <c r="T14">
-        <v>3.004087504558955E-05</v>
+        <v>2.872788517547125E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H15">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I15">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J15">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q15">
-        <v>1.319936011872</v>
+        <v>0.3112859129009999</v>
       </c>
       <c r="R15">
-        <v>11.879424106848</v>
+        <v>2.801573216109</v>
       </c>
       <c r="S15">
-        <v>0.0003230564571676801</v>
+        <v>0.0001383833917588377</v>
       </c>
       <c r="T15">
-        <v>0.0003230564571676802</v>
+        <v>0.0001383833917588377</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H16">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I16">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J16">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N16">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O16">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P16">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q16">
-        <v>0.5607268395306667</v>
+        <v>0.1354518980808889</v>
       </c>
       <c r="R16">
-        <v>5.046541555776</v>
+        <v>1.219067082728</v>
       </c>
       <c r="S16">
-        <v>0.0001372387938417533</v>
+        <v>6.021568050388182E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001372387938417534</v>
+        <v>6.021568050388182E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H17">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I17">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J17">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N17">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q17">
-        <v>1.347593591168</v>
+        <v>0.09794379139744444</v>
       </c>
       <c r="R17">
-        <v>12.128342320512</v>
+        <v>0.881494122577</v>
       </c>
       <c r="S17">
-        <v>0.0003298256940858607</v>
+        <v>4.354130236407138E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003298256940858607</v>
+        <v>4.354130236407138E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H18">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I18">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J18">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N18">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O18">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P18">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q18">
-        <v>0.105585057056</v>
+        <v>0.02955213132166666</v>
       </c>
       <c r="R18">
-        <v>0.950265513504</v>
+        <v>0.265969181895</v>
       </c>
       <c r="S18">
-        <v>2.584211215965105E-05</v>
+        <v>1.313751762128545E-05</v>
       </c>
       <c r="T18">
-        <v>2.584211215965106E-05</v>
+        <v>1.313751762128545E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H19">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I19">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J19">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N19">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q19">
-        <v>0.7641788046933333</v>
+        <v>0.0740392285062222</v>
       </c>
       <c r="R19">
-        <v>6.87760924224</v>
+        <v>0.6663530565559999</v>
       </c>
       <c r="S19">
-        <v>0.0001870339888194529</v>
+        <v>3.291443377059334E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001870339888194529</v>
+        <v>3.291443377059334E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H20">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N20">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O20">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P20">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q20">
-        <v>49.12314209369722</v>
+        <v>61.333314817858</v>
       </c>
       <c r="R20">
-        <v>442.1082788432749</v>
+        <v>551.9998333607221</v>
       </c>
       <c r="S20">
-        <v>0.01202296786131879</v>
+        <v>0.02726596926025078</v>
       </c>
       <c r="T20">
-        <v>0.0120229678613188</v>
+        <v>0.02726596926025078</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H21">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>61.574391</v>
       </c>
       <c r="O21">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P21">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q21">
-        <v>528.2651795478989</v>
+        <v>295.445072982771</v>
       </c>
       <c r="R21">
-        <v>4754.386615931091</v>
+        <v>2659.005656844939</v>
       </c>
       <c r="S21">
-        <v>0.1292937504657933</v>
+        <v>0.1313412833133762</v>
       </c>
       <c r="T21">
-        <v>0.1292937504657933</v>
+        <v>0.1313412833133762</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H22">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N22">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O22">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P22">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q22">
-        <v>224.4142609170047</v>
+        <v>128.558968638232</v>
       </c>
       <c r="R22">
-        <v>2019.728348253042</v>
+        <v>1157.030717744088</v>
       </c>
       <c r="S22">
-        <v>0.05492575050432173</v>
+        <v>0.0571514012805153</v>
       </c>
       <c r="T22">
-        <v>0.05492575050432175</v>
+        <v>0.0571514012805153</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H23">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N23">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O23">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P23">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q23">
-        <v>539.334304082156</v>
+        <v>92.95958923406299</v>
       </c>
       <c r="R23">
-        <v>4854.008736739404</v>
+        <v>836.636303106567</v>
       </c>
       <c r="S23">
-        <v>0.1320029364595244</v>
+        <v>0.04132555545104028</v>
       </c>
       <c r="T23">
-        <v>0.1320029364595244</v>
+        <v>0.04132555545104027</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H24">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N24">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O24">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P24">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q24">
-        <v>42.257282642177</v>
+        <v>28.048270844505</v>
       </c>
       <c r="R24">
-        <v>380.315543779593</v>
+        <v>252.434437600545</v>
       </c>
       <c r="S24">
-        <v>0.01034253774207871</v>
+        <v>0.01246897045953874</v>
       </c>
       <c r="T24">
-        <v>0.01034253774207871</v>
+        <v>0.01246897045953875</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H25">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N25">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O25">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P25">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q25">
-        <v>305.8398663549534</v>
+        <v>70.27149113736398</v>
       </c>
       <c r="R25">
-        <v>2752.55879719458</v>
+        <v>632.4434202362759</v>
       </c>
       <c r="S25">
-        <v>0.07485479810884152</v>
+        <v>0.03123947112451645</v>
       </c>
       <c r="T25">
-        <v>0.07485479810884153</v>
+        <v>0.03123947112451644</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H26">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N26">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O26">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P26">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q26">
-        <v>0.2541709694333333</v>
+        <v>0.8575176676573334</v>
       </c>
       <c r="R26">
-        <v>2.2875387249</v>
+        <v>7.717659008916001</v>
       </c>
       <c r="S26">
-        <v>6.220875266790592E-05</v>
+        <v>0.000381212892795729</v>
       </c>
       <c r="T26">
-        <v>6.220875266790593E-05</v>
+        <v>0.000381212892795729</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H27">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>61.574391</v>
       </c>
       <c r="O27">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P27">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q27">
-        <v>2.733328266083999</v>
+        <v>4.130697495438</v>
       </c>
       <c r="R27">
-        <v>24.599954394756</v>
+        <v>37.176277458942</v>
       </c>
       <c r="S27">
-        <v>0.0006689864796286849</v>
+        <v>0.001836318015233288</v>
       </c>
       <c r="T27">
-        <v>0.000668986479628685</v>
+        <v>0.001836318015233287</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H28">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N28">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O28">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P28">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q28">
-        <v>1.161155166808</v>
+        <v>1.797417721029333</v>
       </c>
       <c r="R28">
-        <v>10.450396501272</v>
+        <v>16.176759489264</v>
       </c>
       <c r="S28">
-        <v>0.000284194590523314</v>
+        <v>0.0007990492031118201</v>
       </c>
       <c r="T28">
-        <v>0.0002841945905233141</v>
+        <v>0.0007990492031118199</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H29">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N29">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O29">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P29">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q29">
-        <v>2.790601681296</v>
+        <v>1.299693166480667</v>
       </c>
       <c r="R29">
-        <v>25.115415131664</v>
+        <v>11.697238498326</v>
       </c>
       <c r="S29">
-        <v>0.0006830042399154437</v>
+        <v>0.0005777837710265385</v>
       </c>
       <c r="T29">
-        <v>0.0006830042399154438</v>
+        <v>0.0005777837710265383</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H30">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N30">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O30">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P30">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q30">
-        <v>0.218645917932</v>
+        <v>0.39215046289</v>
       </c>
       <c r="R30">
-        <v>1.967813261388</v>
+        <v>3.52935416601</v>
       </c>
       <c r="S30">
-        <v>5.351393930157961E-05</v>
+        <v>0.000174332049365097</v>
       </c>
       <c r="T30">
-        <v>5.351393930157962E-05</v>
+        <v>0.000174332049365097</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H31">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N31">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O31">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P31">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q31">
-        <v>1.58246423192</v>
+        <v>0.9824847289253333</v>
       </c>
       <c r="R31">
-        <v>14.24217808728</v>
+        <v>8.842362560327999</v>
       </c>
       <c r="S31">
-        <v>0.0003873106603354232</v>
+        <v>0.0004367674973560074</v>
       </c>
       <c r="T31">
-        <v>0.0003873106603354233</v>
+        <v>0.0004367674973560073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.217911</v>
+      </c>
+      <c r="I32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.260872666666667</v>
+      </c>
+      <c r="N32">
+        <v>12.782618</v>
+      </c>
+      <c r="O32">
+        <v>0.09064705929364961</v>
+      </c>
+      <c r="P32">
+        <v>0.09064705929364959</v>
+      </c>
+      <c r="Q32">
+        <v>1.729787896777556</v>
+      </c>
+      <c r="R32">
+        <v>15.568091070998</v>
+      </c>
+      <c r="S32">
+        <v>0.0007689840955173381</v>
+      </c>
+      <c r="T32">
+        <v>0.000768984095517338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.217911</v>
+      </c>
+      <c r="I33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>20.524797</v>
+      </c>
+      <c r="N33">
+        <v>61.574391</v>
+      </c>
+      <c r="O33">
+        <v>0.4366505728284585</v>
+      </c>
+      <c r="P33">
+        <v>0.4366505728284584</v>
+      </c>
+      <c r="Q33">
+        <v>8.332458679688999</v>
+      </c>
+      <c r="R33">
+        <v>74.99212811720099</v>
+      </c>
+      <c r="S33">
+        <v>0.003704227676221407</v>
+      </c>
+      <c r="T33">
+        <v>0.003704227676221405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.217911</v>
+      </c>
+      <c r="I34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.931090666666666</v>
+      </c>
+      <c r="N34">
+        <v>26.793272</v>
+      </c>
+      <c r="O34">
+        <v>0.190002651698962</v>
+      </c>
+      <c r="P34">
+        <v>0.1900026516989619</v>
+      </c>
+      <c r="Q34">
+        <v>3.625757854976889</v>
+      </c>
+      <c r="R34">
+        <v>32.631820694792</v>
+      </c>
+      <c r="S34">
+        <v>0.001611845087983543</v>
+      </c>
+      <c r="T34">
+        <v>0.001611845087983543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.217911</v>
+      </c>
+      <c r="I35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.457974333333333</v>
+      </c>
+      <c r="N35">
+        <v>19.373923</v>
+      </c>
+      <c r="O35">
+        <v>0.1373888468646722</v>
+      </c>
+      <c r="P35">
+        <v>0.1373888468646721</v>
+      </c>
+      <c r="Q35">
+        <v>2.621745992761444</v>
+      </c>
+      <c r="R35">
+        <v>23.595713934853</v>
+      </c>
+      <c r="S35">
+        <v>0.001165507617827393</v>
+      </c>
+      <c r="T35">
+        <v>0.001165507617827393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.217911</v>
+      </c>
+      <c r="I36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.948535</v>
+      </c>
+      <c r="N36">
+        <v>5.845605</v>
+      </c>
+      <c r="O36">
+        <v>0.04145370713904261</v>
+      </c>
+      <c r="P36">
+        <v>0.0414537071390426</v>
+      </c>
+      <c r="Q36">
+        <v>0.7910474034616666</v>
+      </c>
+      <c r="R36">
+        <v>7.119426631155</v>
+      </c>
+      <c r="S36">
+        <v>0.0003516632722402116</v>
+      </c>
+      <c r="T36">
+        <v>0.0003516632722402115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.217911</v>
+      </c>
+      <c r="I37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.881814666666666</v>
+      </c>
+      <c r="N37">
+        <v>14.645444</v>
+      </c>
+      <c r="O37">
+        <v>0.1038571621752152</v>
+      </c>
+      <c r="P37">
+        <v>0.1038571621752152</v>
+      </c>
+      <c r="Q37">
+        <v>1.981871927498222</v>
+      </c>
+      <c r="R37">
+        <v>17.836847347484</v>
+      </c>
+      <c r="S37">
+        <v>0.0008810490548798241</v>
+      </c>
+      <c r="T37">
+        <v>0.0008810490548798236</v>
       </c>
     </row>
   </sheetData>
